--- a/biology/Histoire de la zoologie et de la botanique/Antoine_Duss/Antoine_Duss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antoine_Duss/Antoine_Duss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Antoine Duss, né le 14 août 1840 à Hasle et mort le 12 mai 1924, est un botaniste d'origine suisse naturalisé Français. Il était « prêtre de la congrégation du Saint-Esprit et du Saint-Cœur de Marie[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antoine Duss, né le 14 août 1840 à Hasle et mort le 12 mai 1924, est un botaniste d'origine suisse naturalisé Français. Il était « prêtre de la congrégation du Saint-Esprit et du Saint-Cœur de Marie ».
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Duss, né Anton Düss, dans le canton de Lucerne, fait ses études au collège de Lucerne, puis à Fribourg. En 1863 il entre dans la congrégation du Saint-Esprit et étudie la théologie.
 En 1865 il devient enseignant au collège de Saint-Pierre en Martinique. Revenu en France en 1870 pour faire son noviciat en Bretagne, il est ordonné prêtre à Saint-Brieuc le 23 juillet 1871. Il retourne enseigner en Martinique, à Fort-de-France et à Saint-Pierre, jusqu'en 1889. Rappelé un moment pour enseigner à Beauvais, il est nommé deux ans plus tard professeur au collège de Basse-Terre.
-En 1897, il publie une Flore phanérogamique des Antilles françaises (Guadeloupe et Martinique), ouvrage monumental, qui sert de plus, de nos jours, à documenter les changements survenus dans la flore antillaise[2]. Il fait des voyages de recherches à Antigua-et-Barbuda, à la Dominique et à Sainte-Lucie[3].
+En 1897, il publie une Flore phanérogamique des Antilles françaises (Guadeloupe et Martinique), ouvrage monumental, qui sert de plus, de nos jours, à documenter les changements survenus dans la flore antillaise. Il fait des voyages de recherches à Antigua-et-Barbuda, à la Dominique et à Sainte-Lucie.
 En 1905 Duss devient aumônier dans un hospice de pauvres à Thillac (aujourd'hui partie de Basse-Terre).
-Il est nommé chevalier de la Légion d'honneur quelques jours avant sa mort en 1924[4] et avait d'autres distinctions[5].
-« Duss » est son nom d'auteur en botanique[6].
+Il est nommé chevalier de la Légion d'honneur quelques jours avant sa mort en 1924 et avait d'autres distinctions.
+« Duss » est son nom d'auteur en botanique.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1924)[7] </t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1924) </t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flore phanérogamique des Antilles françaises (Guadeloupe et Martinique), Mâcon, Protat frères, 1897, 656 p.Avec des « annotations sur l'emploi des plantes » du Dr Édouard Heckel, qui était aussi le directeur de la collection.
 Numérisation de manioc.org
